--- a/data/products_worksheet.xlsx
+++ b/data/products_worksheet.xlsx
@@ -422,7 +422,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>801673</t>
+          <t>745063</t>
         </is>
       </c>
     </row>

--- a/data/products_worksheet.xlsx
+++ b/data/products_worksheet.xlsx
@@ -422,7 +422,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>745063</t>
+          <t>362148</t>
         </is>
       </c>
     </row>

--- a/data/products_worksheet.xlsx
+++ b/data/products_worksheet.xlsx
@@ -422,7 +422,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>362148</t>
+          <t>439813</t>
         </is>
       </c>
     </row>

--- a/data/products_worksheet.xlsx
+++ b/data/products_worksheet.xlsx
@@ -422,7 +422,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>439813</t>
+          <t>885950</t>
         </is>
       </c>
     </row>

--- a/data/products_worksheet.xlsx
+++ b/data/products_worksheet.xlsx
@@ -422,7 +422,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>885950</t>
+          <t>926323</t>
         </is>
       </c>
     </row>

--- a/data/products_worksheet.xlsx
+++ b/data/products_worksheet.xlsx
@@ -422,7 +422,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>926323</t>
+          <t>450476</t>
         </is>
       </c>
     </row>

--- a/data/products_worksheet.xlsx
+++ b/data/products_worksheet.xlsx
@@ -422,7 +422,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>450476</t>
+          <t>608681</t>
         </is>
       </c>
     </row>

--- a/data/products_worksheet.xlsx
+++ b/data/products_worksheet.xlsx
@@ -422,7 +422,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>608681</t>
+          <t>786483</t>
         </is>
       </c>
     </row>

--- a/data/products_worksheet.xlsx
+++ b/data/products_worksheet.xlsx
@@ -422,7 +422,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>786483</t>
+          <t>919526</t>
         </is>
       </c>
     </row>

--- a/data/products_worksheet.xlsx
+++ b/data/products_worksheet.xlsx
@@ -422,7 +422,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>919526</t>
+          <t>066639</t>
         </is>
       </c>
     </row>

--- a/data/products_worksheet.xlsx
+++ b/data/products_worksheet.xlsx
@@ -422,7 +422,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>066639</t>
+          <t>018216</t>
         </is>
       </c>
     </row>

--- a/data/products_worksheet.xlsx
+++ b/data/products_worksheet.xlsx
@@ -422,7 +422,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>018216</t>
+          <t>429324</t>
         </is>
       </c>
     </row>

--- a/data/products_worksheet.xlsx
+++ b/data/products_worksheet.xlsx
@@ -422,7 +422,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>429324</t>
+          <t>101664</t>
         </is>
       </c>
     </row>

--- a/data/products_worksheet.xlsx
+++ b/data/products_worksheet.xlsx
@@ -422,7 +422,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>101664</t>
+          <t>485675</t>
         </is>
       </c>
     </row>

--- a/data/products_worksheet.xlsx
+++ b/data/products_worksheet.xlsx
@@ -422,7 +422,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>485675</t>
+          <t>186042</t>
         </is>
       </c>
     </row>
